--- a/Tools/FTT/db/Step 3 DBs (Desc Filtering)/bigram/bigram_ranks.xlsx
+++ b/Tools/FTT/db/Step 3 DBs (Desc Filtering)/bigram/bigram_ranks.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Documents\GitHub\OSC-Code\Tools\FTT\db\Step 3 DBs (Desc Filtering)\bigram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{933D0AFC-7217-4E88-8173-68291B379BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0966D34C-2AF3-4679-8FF2-F63162E08ABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bigram_ranks" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1586,24 +1586,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B1:P12" totalsRowShown="0">
-  <autoFilter ref="B1:P12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B1:P12" totalsRowShown="0">
+  <autoFilter ref="B1:P12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="cve"/>
-    <tableColumn id="2" name="cwe"/>
-    <tableColumn id="3" name="score"/>
-    <tableColumn id="4" name="('arbitrari', 'command')"/>
-    <tableColumn id="5" name="('command', 'inject')"/>
-    <tableColumn id="6" name="('inject', 'vulner')"/>
-    <tableColumn id="7" name="('a', 'command')"/>
-    <tableColumn id="8" name="('inject', 'in')"/>
-    <tableColumn id="9" name="('execut', 'arbitrari')"/>
-    <tableColumn id="10" name="('to', 'execut')"/>
-    <tableColumn id="11" name="('sequel', 'is')"/>
-    <tableColumn id="12" name="('sqlite', 'and')"/>
-    <tableColumn id="13" name="('microsoft', 'sql')"/>
-    <tableColumn id="14" name="('sql', 'server')"/>
-    <tableColumn id="15" name="('arbitrari', 'code')"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="cve"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="cwe"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="score"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="('arbitrari', 'command')"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="('command', 'inject')"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="('inject', 'vulner')"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="('a', 'command')"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="('inject', 'in')"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="('execut', 'arbitrari')"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="('to', 'execut')"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="('sequel', 'is')"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="('sqlite', 'and')"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="('microsoft', 'sql')"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="('sql', 'server')"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="('arbitrari', 'code')"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1905,10 +1905,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -1923,11 +1923,11 @@
     <col min="9" max="9" width="16.140625" customWidth="1"/>
     <col min="10" max="10" width="20.42578125" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
